--- a/www/ig/nos/ValueSet-JDV-J224-StatutLieu-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J224-StatutLieu-ROR.xlsx
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.3.4.56</t>
+    <t>urn:oid:1.2.250.1.213.3.4.56</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/www/ig/nos/ValueSet-JDV-J224-StatutLieu-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J224-StatutLieu-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -72,7 +72,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -112,9 +118,6 @@
   </si>
   <si>
     <t>Opérationnel</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -254,7 +257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -360,20 +363,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -395,50 +406,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J224-StatutLieu-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J224-StatutLieu-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -72,52 +72,49 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>ANS (https://esante.gouv.fr)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Statut lieu</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Fermé définitivement</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Fermé temporairement</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Opérationnel</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Statut lieu</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Fermé définitivement</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Fermé temporairement</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Opérationnel</t>
   </si>
   <si>
     <t>System URI</t>
@@ -257,7 +254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -363,28 +360,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -406,50 +395,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>35</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J224-StatutLieu-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J224-StatutLieu-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -75,49 +75,46 @@
     <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
-    <t>Jurisdiction</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Statut lieu</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Fermé définitivement</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Fermé temporairement</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Opérationnel</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Statut lieu</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Fermé définitivement</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Fermé temporairement</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Opérationnel</t>
   </si>
   <si>
     <t>System URI</t>
@@ -257,7 +254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -363,28 +360,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -406,50 +395,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>35</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J224-StatutLieu-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J224-StatutLieu-ROR.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
